--- a/biology/Botanique/Yucca_filamentosa/Yucca_filamentosa.xlsx
+++ b/biology/Botanique/Yucca_filamentosa/Yucca_filamentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Yucca filamenteux (Yucca filamentosa) est une espèce de plante de la famille des Agavaceae originaire de l'est de l'Amérique du Nord.
 Habituellement sans tronc, Yucca filamentosa est une plante multitige avec des feuilles de 75 cm de long, filamenteuses, bleu-vert. La plante est très résistante. Yucca filamentosa est facilement identifiable par rapport aux autres Yucca grâce aux bandes blanches sur ses feuilles.
